--- a/data/small/l_data07.xlsx
+++ b/data/small/l_data07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD4E028-D73F-4906-B998-FFF0A028E931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F53150-63FB-4607-8351-643EBB5F83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="275">
   <si>
     <t>id</t>
   </si>
@@ -261,9 +261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -273,33 +270,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -324,138 +306,54 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1</t>
-  </si>
-  <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -468,57 +366,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -763,303 +631,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1196,6 +767,114 @@
   <si>
     <t>teacher</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1675,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1387,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1398,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2501,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2927,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3266,7 +2945,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>72</v>
@@ -3281,7 +2960,7 @@
         <v>74</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3319,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3349,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3379,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3409,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3425,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3439,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3469,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3499,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3559,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3589,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3619,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3635,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3649,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3679,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3739,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3769,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3799,7 +3478,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3829,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3859,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3919,7 +3598,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4009,7 +3688,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4039,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4055,7 +3734,7 @@
         <v>75</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4069,7 +3748,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4099,7 +3778,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4129,7 +3808,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4159,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4219,7 +3898,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4249,7 +3928,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4265,7 +3944,7 @@
         <v>75</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4279,7 +3958,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4309,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4339,7 +4018,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4369,7 +4048,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4399,7 +4078,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4459,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4489,7 +4168,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4519,7 +4198,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4549,7 +4228,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4579,7 +4258,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4639,7 +4318,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4669,7 +4348,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4685,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4699,7 +4378,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4729,7 +4408,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4759,7 +4438,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4819,7 +4498,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4895,7 +4574,7 @@
         <v>75</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4909,7 +4588,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4939,7 +4618,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4969,7 +4648,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4999,7 +4678,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -5029,7 +4708,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5059,7 +4738,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5089,7 +4768,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -5119,7 +4798,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -5149,7 +4828,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -5179,7 +4858,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5269,7 +4948,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5299,7 +4978,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5315,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5389,7 +5068,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5419,7 +5098,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5525,7 +5204,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5539,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5629,7 +5308,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5659,7 +5338,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5740,27 +5419,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,10 +5469,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5801,10 +5480,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,10 +5491,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,10 +5513,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,10 +5524,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,10 +5535,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,10 +5546,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,10 +5557,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,10 +5568,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,10 +5579,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,10 +5590,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,10 +5601,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,10 +5612,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,10 +5623,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,10 +5634,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,10 +5645,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5977,10 +5656,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,10 +5667,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,10 +5678,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,10 +5689,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6021,10 +5700,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6032,10 +5711,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6043,10 +5722,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,10 +5733,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,10 +5744,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,10 +5755,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6087,10 +5766,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,10 +5777,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,10 +5788,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,10 +5799,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6131,10 +5810,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,10 +5821,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6153,10 +5832,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6164,10 +5843,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6175,10 +5854,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6186,10 +5865,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,10 +5876,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,10 +5887,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,10 +5898,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,10 +5909,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,10 +5920,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6252,10 +5931,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6263,10 +5942,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6274,10 +5953,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,10 +5964,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6296,10 +5975,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6307,10 +5986,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6318,10 +5997,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6329,10 +6008,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6340,10 +6019,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6351,10 +6030,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,10 +6041,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6373,10 +6052,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,10 +6063,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6395,10 +6074,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,10 +6085,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6417,10 +6096,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6428,10 +6107,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6439,10 +6118,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6450,10 +6129,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6461,10 +6140,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,10 +6151,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,10 +6162,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,10 +6173,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,10 +6184,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6516,10 +6195,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,10 +6206,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,10 +6217,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6549,10 +6228,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6560,10 +6239,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6571,10 +6250,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6582,10 +6261,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6593,10 +6272,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6604,10 +6283,34 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="C78" t="s">
-        <v>245</v>
+      <c r="B81" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6620,48 +6323,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,16 +6358,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6686,16 +6369,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6703,16 +6380,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6720,16 +6391,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6737,16 +6402,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6754,16 +6413,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6771,16 +6424,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6788,16 +6435,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,16 +6446,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6822,16 +6457,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6839,16 +6468,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6856,16 +6479,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6873,16 +6490,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6890,1444 +6501,934 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>122</v>
       </c>
-      <c r="D26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>166</v>
-      </c>
-      <c r="E58" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" t="s">
-        <v>166</v>
-      </c>
-      <c r="E78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="D79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E79" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>167</v>
-      </c>
-      <c r="E80" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" t="s">
-        <v>165</v>
-      </c>
-      <c r="E83" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" t="s">
-        <v>166</v>
-      </c>
-      <c r="E88" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" t="s">
-        <v>166</v>
-      </c>
-      <c r="E90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" t="s">
-        <v>165</v>
-      </c>
-      <c r="E93" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" t="s">
-        <v>166</v>
-      </c>
-      <c r="E96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" t="s">
-        <v>166</v>
-      </c>
-      <c r="E98" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" t="s">
-        <v>165</v>
-      </c>
-      <c r="E99" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data07.xlsx
+++ b/data/small/l_data07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F53150-63FB-4607-8351-643EBB5F83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693A1E1-3BCA-4807-BA3C-D315CB5990E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -294,21 +294,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -333,18 +321,9 @@
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -357,18 +336,9 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -376,12 +346,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -769,30 +733,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,-1</t>
   </si>
   <si>
@@ -808,73 +760,181 @@
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
-    <t>0,-1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
-    <t>1,1,0,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
     <t>-1,0,1,1,0</t>
   </si>
   <si>
-    <t>0,0,-1,1,-1</t>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1354,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1436,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2505,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +3005,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>72</v>
@@ -2960,7 +3020,7 @@
         <v>74</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2998,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3028,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3058,7 +3118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3088,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3104,7 +3164,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3118,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3148,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3178,7 +3238,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3238,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3268,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3298,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3314,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3328,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3358,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3418,7 +3478,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3448,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3478,7 +3538,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3508,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3538,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3598,7 +3658,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3688,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3718,7 +3778,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3734,7 +3794,7 @@
         <v>75</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3748,7 +3808,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3778,7 +3838,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3808,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3838,7 +3898,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3898,7 +3958,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3928,7 +3988,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3944,7 +4004,7 @@
         <v>75</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3958,7 +4018,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -3988,7 +4048,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4018,7 +4078,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4048,7 +4108,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4078,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4138,7 +4198,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4168,7 +4228,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4198,7 +4258,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4228,7 +4288,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4258,7 +4318,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4318,7 +4378,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4348,7 +4408,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4364,7 +4424,7 @@
         <v>75</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4378,7 +4438,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4408,7 +4468,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4438,7 +4498,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4498,7 +4558,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4574,7 +4634,7 @@
         <v>75</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4588,7 +4648,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4618,7 +4678,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4648,7 +4708,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4678,7 +4738,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4708,7 +4768,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4738,7 +4798,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4768,7 +4828,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4798,7 +4858,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -4828,7 +4888,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4858,7 +4918,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -4948,7 +5008,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -4978,7 +5038,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -4994,7 +5054,7 @@
         <v>75</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5068,7 +5128,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5098,7 +5158,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5204,7 +5264,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5218,7 +5278,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5308,7 +5368,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5338,7 +5398,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5421,25 +5481,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B122"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5447,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5458,10 +5517,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,10 +5528,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,10 +5539,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,10 +5550,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5502,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5513,10 +5572,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5524,10 +5583,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5535,10 +5594,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,10 +5605,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,10 +5616,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,10 +5638,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5590,10 +5649,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,10 +5660,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,10 +5671,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,10 +5682,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,10 +5693,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,10 +5704,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,10 +5715,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,10 +5726,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5678,10 +5737,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,10 +5748,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,10 +5759,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,10 +5770,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5722,10 +5781,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,10 +5792,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5744,10 +5803,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,10 +5814,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,10 +5825,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,10 +5836,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,10 +5847,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,10 +5858,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5810,10 +5869,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,10 +5880,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5832,10 +5891,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5843,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,10 +5913,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5865,10 +5924,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,10 +5935,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,10 +5946,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,10 +5957,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +5968,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,10 +5979,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,10 +5990,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,10 +6001,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,10 +6012,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5964,10 +6023,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,10 +6034,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,10 +6045,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,10 +6056,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6008,10 +6067,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,10 +6078,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,10 +6089,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6100,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,10 +6111,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,10 +6122,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,7 +6136,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,10 +6144,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,10 +6155,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,10 +6166,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,10 +6177,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,10 +6188,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6140,10 +6199,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6210,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,10 +6221,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,10 +6232,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,10 +6243,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6195,10 +6254,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,10 +6265,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6217,10 +6276,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6228,10 +6287,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6239,10 +6298,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6250,10 +6309,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,10 +6320,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6272,10 +6331,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6283,10 +6342,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6294,7 +6353,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6302,7 +6361,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6310,7 +6369,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6323,21 +6382,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -6347,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,10 +6417,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6369,10 +6428,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6380,10 +6439,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6391,10 +6450,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,10 +6461,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6413,10 +6472,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6424,10 +6483,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6435,10 +6494,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6446,10 +6505,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6457,10 +6516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6468,10 +6527,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6479,10 +6538,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6490,10 +6549,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6501,10 +6560,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6512,10 +6571,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6523,10 +6582,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6534,10 +6593,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6545,10 +6604,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6556,10 +6615,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6567,10 +6626,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6578,10 +6637,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6589,10 +6648,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6600,10 +6659,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6611,10 +6670,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,10 +6681,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6633,10 +6692,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6644,10 +6703,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,10 +6714,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,10 +6725,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,10 +6736,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,10 +6747,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,10 +6758,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,10 +6769,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,10 +6780,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6732,10 +6791,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6743,10 +6802,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6754,10 +6813,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,10 +6824,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,10 +6835,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6787,10 +6846,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6798,10 +6857,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6809,10 +6868,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6820,10 +6879,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6831,10 +6890,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6842,10 +6901,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6853,10 +6912,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6864,10 +6923,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6875,10 +6934,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6886,10 +6945,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,10 +6956,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,10 +6967,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6919,10 +6978,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6930,10 +6989,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6941,10 +7000,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,10 +7011,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,10 +7022,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6974,10 +7033,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,10 +7044,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6996,10 +7055,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7007,10 +7066,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,10 +7077,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,10 +7088,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,10 +7099,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,10 +7110,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7062,10 +7121,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7073,10 +7132,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7084,10 +7143,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7095,10 +7154,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,10 +7165,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7117,10 +7176,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,10 +7187,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,10 +7198,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7150,10 +7209,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,10 +7220,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7172,10 +7231,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,10 +7242,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7194,10 +7253,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7205,10 +7264,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,10 +7275,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7227,10 +7286,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,10 +7297,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7249,10 +7308,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7260,10 +7319,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7271,10 +7330,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7282,10 +7341,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7293,10 +7352,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7304,10 +7363,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7315,10 +7374,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7326,10 +7385,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7337,10 +7396,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7351,7 +7410,7 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7359,10 +7418,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7370,10 +7429,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7381,10 +7440,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7392,10 +7451,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,10 +7462,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7414,10 +7473,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7425,10 +7484,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
